--- a/www/statics/vac.xlsx
+++ b/www/statics/vac.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="579"/>
@@ -512,8 +512,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -538,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,9 +578,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -615,7 +615,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,7 +650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -829,8 +829,9 @@
   </sheetPr>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2234,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
